--- a/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
+++ b/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
-  <si>
-    <t>Rodando o volante para o lado direito</t>
-  </si>
-  <si>
-    <t>Rodando o volante para o lado esquerdo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+  <si>
+    <t>Rodando o volante para o lado esquerdo (anti-horário)</t>
+  </si>
+  <si>
+    <t>Rodando o volante para o lado direito (horário)</t>
   </si>
   <si>
     <t>can</t>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>formula</t>
+  </si>
+  <si>
+    <t>reta</t>
   </si>
   <si>
     <t>-right</t>
@@ -313,8 +316,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -365,15 +367,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -431,7 +433,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF98B855"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -449,7 +451,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -484,7 +486,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="7"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -593,79 +595,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.015</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.345</c:v>
+                  <c:v>0.344347826086957</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.135</c:v>
+                  <c:v>1.13480176211454</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.05</c:v>
+                  <c:v>2.04980487804878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.37</c:v>
+                  <c:v>2.36962025316456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.12</c:v>
+                  <c:v>4.11961165048544</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.185</c:v>
+                  <c:v>5.18441658630665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.43</c:v>
+                  <c:v>6.42923794712286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9</c:v>
+                  <c:v>7.88783544303798</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.315</c:v>
+                  <c:v>9.31304347826087</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.285</c:v>
+                  <c:v>10.2823529411765</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.27</c:v>
+                  <c:v>12.2656886715566</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.535</c:v>
+                  <c:v>13.5190247506465</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.9</c:v>
+                  <c:v>14.8939597315436</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.81</c:v>
+                  <c:v>15.7887223276407</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.945</c:v>
+                  <c:v>16.9212038949543</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.755</c:v>
+                  <c:v>18.7269741402293</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.115</c:v>
+                  <c:v>20.0647874720358</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.215</c:v>
+                  <c:v>21.1595097808155</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.65</c:v>
+                  <c:v>22.5646975717439</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.58</c:v>
+                  <c:v>24.4822579332791</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.88</c:v>
+                  <c:v>25.7696406491499</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.73</c:v>
+                  <c:v>27.527443202308</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.22</c:v>
+                  <c:v>29.9624189278623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.345</c:v>
+                  <c:v>32.0469315195548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -697,7 +699,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="7"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -790,89 +792,286 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-0.058558</c:v>
+                  <c:v>-0.08375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.523536172</c:v>
+                  <c:v>0.5042017853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.108614688</c:v>
+                  <c:v>1.0946871412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.938108875</c:v>
+                  <c:v>1.931034953125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.46022612288</c:v>
+                  <c:v>2.456985925312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.024103632</c:v>
+                  <c:v>4.0301806768</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.177327788</c:v>
+                  <c:v>5.1882506437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.60345523628</c:v>
+                  <c:v>6.618072847597</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.023298128</c:v>
+                  <c:v>8.0391495472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.28217226928</c:v>
+                  <c:v>9.297142101172</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.22569656748</c:v>
+                  <c:v>10.238821738477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.1503508</c:v>
+                  <c:v>12.15666412</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.3194452</c:v>
+                  <c:v>13.31968168</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.587224907</c:v>
+                  <c:v>14.579266789925</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.896289587</c:v>
+                  <c:v>15.878163696925</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.16904605388</c:v>
+                  <c:v>17.139416192837</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.854836675</c:v>
+                  <c:v>18.807584048125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.171666912</c:v>
+                  <c:v>20.1088107988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.26431149548</c:v>
+                  <c:v>21.187317305677</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.620673627</c:v>
+                  <c:v>22.524662467925</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.48742389568</c:v>
+                  <c:v>24.362655204032</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.999040588</c:v>
+                  <c:v>25.8488553637</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.93725346688</c:v>
+                  <c:v>27.751779320912</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30.11357369068</c:v>
+                  <c:v>29.884979640157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.21829461228</c:v>
+                  <c:v>31.944607179997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="25822847"/>
-        <c:axId val="8020425"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3540</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3717</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3935</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4232</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4470</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4772</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5107</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.0469315195548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="41420183"/>
+        <c:axId val="54794043"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25822847"/>
+        <c:axId val="41420183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,11 +1088,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8020425"/>
+        <c:crossAx val="54794043"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8020425"/>
+        <c:axId val="54794043"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +1119,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="25822847"/>
+        <c:crossAx val="41420183"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -959,16 +1158,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>395640</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>781560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>571320</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -976,8 +1175,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9364320" y="2658240"/>
-        <a:ext cx="10389600" cy="6357960"/>
+        <a:off x="8934840" y="2005200"/>
+        <a:ext cx="10389240" cy="6357600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -985,6 +1184,45 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>652320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>65880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153280" y="0"/>
+          <a:ext cx="3913560" cy="233280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -997,27 +1235,25 @@
   </sheetPr>
   <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W4" activeCellId="0" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="6" style="2" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="2" style="1" width="11.5561224489796"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="2" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="18" min="16" style="3" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="21" min="19" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="25" min="22" style="2" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="1" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="21" min="16" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="25" min="22" style="1" width="11.5561224489796"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.5561224489796"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0"/>
       <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -1026,16 +1262,15 @@
       <c r="J1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
       <c r="V1" s="0"/>
       <c r="W1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -1047,111 +1282,116 @@
       <c r="P2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="0"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="0"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="2"/>
       <c r="R3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="U3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="2" t="s">
+      <c r="V3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="n">
         <f aca="false">HEX2DEC(C4)+256*HEX2DEC(B4)</f>
         <v>19970</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">D4-20000+30</f>
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="1" t="n">
         <v>-0.03</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="1" t="n">
         <f aca="false">-F4</f>
         <v>0.03</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G4)))</f>
         <v>0.0279000025496481</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="2" t="n">
-        <f aca="false">(G4+I4)/2</f>
-        <v>0.015</v>
+      <c r="J4" s="1" t="n">
+        <f aca="false">2*G4*I4/(G4+I4)</f>
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">0.00000012332*E4*E4+0.0052782*E4-0.058558</f>
-        <v>-0.058558</v>
+        <f aca="false">0.000000104693*E4*E4+0.0053335*E4-0.08375</f>
+        <v>-0.08375</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
-      <c r="P4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>14</v>
+      <c r="P4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="R4" s="3" t="n">
         <f aca="false">HEX2DEC(Q4)+256*HEX2DEC(P4)</f>
@@ -1161,68 +1401,68 @@
         <f aca="false">-(R4-19988)</f>
         <v>-0</v>
       </c>
-      <c r="T4" s="2" t="n">
+      <c r="T4" s="1" t="n">
         <v>-0.07</v>
       </c>
-      <c r="U4" s="2" t="n">
+      <c r="U4" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="V4" s="2" t="n">
+      <c r="V4" s="1" t="n">
         <f aca="false">-U4</f>
         <v>-0.02</v>
       </c>
-      <c r="W4" s="2" t="n">
-        <f aca="false">(T4+V4)/2</f>
-        <v>-0.045</v>
+      <c r="W4" s="1" t="n">
+        <f aca="false">2*T4*V4/(T4+V4)</f>
+        <v>-0.0311111111111111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <f aca="false">HEX2DEC(C5)+256*HEX2DEC(B5)</f>
         <v>20080</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="1" t="n">
         <f aca="false">D5-20000+30</f>
         <v>110</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="1" t="n">
         <v>-0.36</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="1" t="n">
         <f aca="false">-F5</f>
         <v>0.36</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G5)))</f>
         <v>0.334804405860979</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="J5" s="2" t="n">
-        <f aca="false">(G5+I5)/2</f>
-        <v>0.345</v>
+      <c r="J5" s="1" t="n">
+        <f aca="false">2*G5*I5/(G5+I5)</f>
+        <v>0.344347826086957</v>
       </c>
       <c r="K5" s="0" t="n">
-        <f aca="false">0.00000012332*E5*E5+0.0052782*E5-0.058558</f>
-        <v>0.523536172</v>
+        <f aca="false">0.000000104693*E5*E5+0.0053335*E5-0.08375</f>
+        <v>0.5042017853</v>
       </c>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
-      <c r="P5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="R5" s="3" t="n">
         <f aca="false">HEX2DEC(Q5)+256*HEX2DEC(P5)</f>
@@ -1232,68 +1472,68 @@
         <f aca="false">-(R5-19988)</f>
         <v>283</v>
       </c>
-      <c r="T5" s="2" t="n">
+      <c r="T5" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="U5" s="2" t="n">
+      <c r="U5" s="1" t="n">
         <v>-1.31</v>
       </c>
-      <c r="V5" s="2" t="n">
+      <c r="V5" s="1" t="n">
         <f aca="false">-U5</f>
         <v>1.31</v>
       </c>
-      <c r="W5" s="2" t="n">
-        <f aca="false">(T5+V5)/2</f>
-        <v>1.29</v>
+      <c r="W5" s="1" t="n">
+        <f aca="false">2*T5*V5/(T5+V5)</f>
+        <v>1.28968992248062</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <f aca="false">HEX2DEC(C6)+256*HEX2DEC(B6)</f>
         <v>20190</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="1" t="n">
         <f aca="false">D6-20000+30</f>
         <v>220</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="1" t="n">
         <v>-1.15</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">-F6</f>
         <v>1.15</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G6)))</f>
         <v>1.06964364150249</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>1.12</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <f aca="false">(G6+I6)/2</f>
-        <v>1.135</v>
+      <c r="J6" s="1" t="n">
+        <f aca="false">2*G6*I6/(G6+I6)</f>
+        <v>1.13480176211454</v>
       </c>
       <c r="K6" s="0" t="n">
-        <f aca="false">0.00000012332*E6*E6+0.0052782*E6-0.058558</f>
-        <v>1.108614688</v>
+        <f aca="false">0.000000104693*E6*E6+0.0053335*E6-0.08375</f>
+        <v>1.0946871412</v>
       </c>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
-      <c r="P6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="R6" s="3" t="n">
         <f aca="false">HEX2DEC(Q6)+256*HEX2DEC(P6)</f>
@@ -1303,68 +1543,68 @@
         <f aca="false">-(R6-19988)</f>
         <v>560</v>
       </c>
-      <c r="T6" s="2" t="n">
+      <c r="T6" s="1" t="n">
         <v>2.58</v>
       </c>
-      <c r="U6" s="2" t="n">
+      <c r="U6" s="1" t="n">
         <v>-3.05</v>
       </c>
-      <c r="V6" s="2" t="n">
+      <c r="V6" s="1" t="n">
         <f aca="false">-U6</f>
         <v>3.05</v>
       </c>
-      <c r="W6" s="2" t="n">
-        <f aca="false">(T6+V6)/2</f>
-        <v>2.815</v>
+      <c r="W6" s="1" t="n">
+        <f aca="false">2*T6*V6/(T6+V6)</f>
+        <v>2.79538188277087</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="n">
         <f aca="false">HEX2DEC(C7)+256*HEX2DEC(B7)</f>
         <v>20345</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="1" t="n">
         <f aca="false">D7-20000+30</f>
         <v>375</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="1" t="n">
         <v>-2.07</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="1" t="n">
         <f aca="false">-F7</f>
         <v>2.07</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G7)))</f>
         <v>1.9259380197849</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>2.03</v>
       </c>
-      <c r="J7" s="2" t="n">
-        <f aca="false">(G7+I7)/2</f>
-        <v>2.05</v>
+      <c r="J7" s="1" t="n">
+        <f aca="false">2*G7*I7/(G7+I7)</f>
+        <v>2.04980487804878</v>
       </c>
       <c r="K7" s="0" t="n">
-        <f aca="false">0.00000012332*E7*E7+0.0052782*E7-0.058558</f>
-        <v>1.938108875</v>
+        <f aca="false">0.000000104693*E7*E7+0.0053335*E7-0.08375</f>
+        <v>1.931034953125</v>
       </c>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
-      <c r="P7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="R7" s="3" t="n">
         <f aca="false">HEX2DEC(Q7)+256*HEX2DEC(P7)</f>
@@ -1374,68 +1614,68 @@
         <f aca="false">-(R7-19988)</f>
         <v>840</v>
       </c>
-      <c r="T7" s="2" t="n">
+      <c r="T7" s="1" t="n">
         <v>4.31</v>
       </c>
-      <c r="U7" s="2" t="n">
+      <c r="U7" s="1" t="n">
         <v>-4.4</v>
       </c>
-      <c r="V7" s="2" t="n">
+      <c r="V7" s="1" t="n">
         <f aca="false">-U7</f>
         <v>4.4</v>
       </c>
-      <c r="W7" s="2" t="n">
-        <f aca="false">(T7+V7)/2</f>
-        <v>4.355</v>
+      <c r="W7" s="1" t="n">
+        <f aca="false">2*T7*V7/(T7+V7)</f>
+        <v>4.35453501722158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="n">
         <f aca="false">HEX2DEC(C8)+256*HEX2DEC(B8)</f>
         <v>20442</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="1" t="n">
         <f aca="false">D8-20000+30</f>
         <v>472</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="1" t="n">
         <v>-2.4</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="1" t="n">
         <f aca="false">-F8</f>
         <v>2.4</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G8)))</f>
         <v>2.23330633652042</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>2.34</v>
       </c>
-      <c r="J8" s="2" t="n">
-        <f aca="false">(G8+I8)/2</f>
-        <v>2.37</v>
+      <c r="J8" s="1" t="n">
+        <f aca="false">2*G8*I8/(G8+I8)</f>
+        <v>2.36962025316456</v>
       </c>
       <c r="K8" s="0" t="n">
-        <f aca="false">0.00000012332*E8*E8+0.0052782*E8-0.058558</f>
-        <v>2.46022612288</v>
+        <f aca="false">0.000000104693*E8*E8+0.0053335*E8-0.08375</f>
+        <v>2.456985925312</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
-      <c r="P8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="R8" s="3" t="n">
         <f aca="false">HEX2DEC(Q8)+256*HEX2DEC(P8)</f>
@@ -1445,68 +1685,68 @@
         <f aca="false">-(R8-19988)</f>
         <v>1190</v>
       </c>
-      <c r="T8" s="2" t="n">
+      <c r="T8" s="1" t="n">
         <v>6.21</v>
       </c>
-      <c r="U8" s="2" t="n">
+      <c r="U8" s="1" t="n">
         <v>-6.34</v>
       </c>
-      <c r="V8" s="2" t="n">
+      <c r="V8" s="1" t="n">
         <f aca="false">-U8</f>
         <v>6.34</v>
       </c>
-      <c r="W8" s="2" t="n">
-        <f aca="false">(T8+V8)/2</f>
-        <v>6.275</v>
+      <c r="W8" s="1" t="n">
+        <f aca="false">2*T8*V8/(T8+V8)</f>
+        <v>6.27432669322709</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <f aca="false">HEX2DEC(C9)+256*HEX2DEC(B9)</f>
         <v>20730</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="1" t="n">
         <f aca="false">D9-20000+30</f>
         <v>760</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="1" t="n">
         <v>-4.16</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="1" t="n">
         <f aca="false">-F9</f>
         <v>4.16</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G9)))</f>
         <v>3.87561260453503</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>4.08</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">(G9+I9)/2</f>
-        <v>4.12</v>
+      <c r="J9" s="1" t="n">
+        <f aca="false">2*G9*I9/(G9+I9)</f>
+        <v>4.11961165048544</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">0.00000012332*E9*E9+0.0052782*E9-0.058558</f>
-        <v>4.024103632</v>
+        <f aca="false">0.000000104693*E9*E9+0.0053335*E9-0.08375</f>
+        <v>4.0301806768</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
-      <c r="P9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="R9" s="3" t="n">
         <f aca="false">HEX2DEC(Q9)+256*HEX2DEC(P9)</f>
@@ -1516,68 +1756,68 @@
         <f aca="false">-(R9-19988)</f>
         <v>1420</v>
       </c>
-      <c r="T9" s="2" t="n">
+      <c r="T9" s="1" t="n">
         <v>7.35</v>
       </c>
-      <c r="U9" s="2" t="n">
+      <c r="U9" s="1" t="n">
         <v>-7.54</v>
       </c>
-      <c r="V9" s="2" t="n">
+      <c r="V9" s="1" t="n">
         <f aca="false">-U9</f>
         <v>7.54</v>
       </c>
-      <c r="W9" s="2" t="n">
-        <f aca="false">(T9+V9)/2</f>
-        <v>7.445</v>
+      <c r="W9" s="1" t="n">
+        <f aca="false">2*T9*V9/(T9+V9)</f>
+        <v>7.44378777703156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <f aca="false">HEX2DEC(C10)+256*HEX2DEC(B10)</f>
         <v>20940</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="1" t="n">
         <f aca="false">D10-20000+30</f>
         <v>970</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="1" t="n">
         <v>-5.24</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="1" t="n">
         <f aca="false">-F10</f>
         <v>5.24</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G10)))</f>
         <v>4.8868321944003</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="1" t="n">
         <v>5.13</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">(G10+I10)/2</f>
-        <v>5.185</v>
+      <c r="J10" s="1" t="n">
+        <f aca="false">2*G10*I10/(G10+I10)</f>
+        <v>5.18441658630665</v>
       </c>
       <c r="K10" s="0" t="n">
-        <f aca="false">0.00000012332*E10*E10+0.0052782*E10-0.058558</f>
-        <v>5.177327788</v>
+        <f aca="false">0.000000104693*E10*E10+0.0053335*E10-0.08375</f>
+        <v>5.1882506437</v>
       </c>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
-      <c r="P10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="R10" s="3" t="n">
         <f aca="false">HEX2DEC(Q10)+256*HEX2DEC(P10)</f>
@@ -1587,68 +1827,68 @@
         <f aca="false">-(R10-19988)</f>
         <v>1670</v>
       </c>
-      <c r="T10" s="2" t="n">
+      <c r="T10" s="1" t="n">
         <v>8.59</v>
       </c>
-      <c r="U10" s="2" t="n">
+      <c r="U10" s="1" t="n">
         <v>-9.24</v>
       </c>
-      <c r="V10" s="2" t="n">
+      <c r="V10" s="1" t="n">
         <f aca="false">-U10</f>
         <v>9.24</v>
       </c>
-      <c r="W10" s="2" t="n">
-        <f aca="false">(T10+V10)/2</f>
-        <v>8.915</v>
+      <c r="W10" s="1" t="n">
+        <f aca="false">2*T10*V10/(T10+V10)</f>
+        <v>8.90315199102636</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <f aca="false">HEX2DEC(C11)+256*HEX2DEC(B11)</f>
         <v>21197</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="1" t="n">
         <f aca="false">D11-20000+30</f>
         <v>1227</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="1" t="n">
         <v>-6.5</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="1" t="n">
         <f aca="false">-F11</f>
         <v>6.5</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G11)))</f>
         <v>6.07106742750419</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <v>6.36</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">(G11+I11)/2</f>
-        <v>6.43</v>
+      <c r="J11" s="1" t="n">
+        <f aca="false">2*G11*I11/(G11+I11)</f>
+        <v>6.42923794712286</v>
       </c>
       <c r="K11" s="0" t="n">
-        <f aca="false">0.00000012332*E11*E11+0.0052782*E11-0.058558</f>
-        <v>6.60345523628</v>
+        <f aca="false">0.000000104693*E11*E11+0.0053335*E11-0.08375</f>
+        <v>6.618072847597</v>
       </c>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
-      <c r="P11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>12</v>
+      <c r="P11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="R11" s="3" t="n">
         <f aca="false">HEX2DEC(Q11)+256*HEX2DEC(P11)</f>
@@ -1658,68 +1898,68 @@
         <f aca="false">-(R11-19988)</f>
         <v>1990</v>
       </c>
-      <c r="T11" s="2" t="n">
+      <c r="T11" s="1" t="n">
         <v>10.48</v>
       </c>
-      <c r="U11" s="2" t="n">
+      <c r="U11" s="1" t="n">
         <v>-11.24</v>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="1" t="n">
         <f aca="false">-U11</f>
         <v>11.24</v>
       </c>
-      <c r="W11" s="2" t="n">
-        <f aca="false">(T11+V11)/2</f>
-        <v>10.86</v>
+      <c r="W11" s="1" t="n">
+        <f aca="false">2*T11*V11/(T11+V11)</f>
+        <v>10.8467034990792</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="n">
         <f aca="false">HEX2DEC(C12)+256*HEX2DEC(B12)</f>
         <v>21450</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="1" t="n">
         <f aca="false">D12-20000+30</f>
         <v>1480</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="1" t="n">
         <v>-8.21</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="1" t="n">
         <f aca="false">-F12</f>
         <v>8.21</v>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G12)))</f>
         <v>7.68798995582232</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>7.59</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <f aca="false">(G12+I12)/2</f>
-        <v>7.9</v>
+      <c r="J12" s="1" t="n">
+        <f aca="false">2*G12*I12/(G12+I12)</f>
+        <v>7.88783544303798</v>
       </c>
       <c r="K12" s="0" t="n">
-        <f aca="false">0.00000012332*E12*E12+0.0052782*E12-0.058558</f>
-        <v>8.023298128</v>
+        <f aca="false">0.000000104693*E12*E12+0.0053335*E12-0.08375</f>
+        <v>8.0391495472</v>
       </c>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
-      <c r="P12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="P12" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="R12" s="3" t="n">
         <f aca="false">HEX2DEC(Q12)+256*HEX2DEC(P12)</f>
@@ -1729,68 +1969,68 @@
         <f aca="false">-(R12-19988)</f>
         <v>2228</v>
       </c>
-      <c r="T12" s="2" t="n">
+      <c r="T12" s="1" t="n">
         <v>12.12</v>
       </c>
-      <c r="U12" s="2" t="n">
+      <c r="U12" s="1" t="n">
         <v>-12.57</v>
       </c>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="1" t="n">
         <f aca="false">-U12</f>
         <v>12.57</v>
       </c>
-      <c r="W12" s="2" t="n">
-        <f aca="false">(T12+V12)/2</f>
-        <v>12.345</v>
+      <c r="W12" s="1" t="n">
+        <f aca="false">2*T12*V12/(T12+V12)</f>
+        <v>12.3408991494532</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <f aca="false">HEX2DEC(C13)+256*HEX2DEC(B13)</f>
         <v>21672</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="1" t="n">
         <f aca="false">D13-20000+30</f>
         <v>1702</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="1" t="n">
         <v>-9.45</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="G13" s="1" t="n">
         <f aca="false">-F13</f>
         <v>9.45</v>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G13)))</f>
         <v>8.86906826932795</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>9.18</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">(G13+I13)/2</f>
-        <v>9.315</v>
+      <c r="J13" s="1" t="n">
+        <f aca="false">2*G13*I13/(G13+I13)</f>
+        <v>9.31304347826087</v>
       </c>
       <c r="K13" s="0" t="n">
-        <f aca="false">0.00000012332*E13*E13+0.0052782*E13-0.058558</f>
-        <v>9.28217226928</v>
+        <f aca="false">0.000000104693*E13*E13+0.0053335*E13-0.08375</f>
+        <v>9.297142101172</v>
       </c>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
-      <c r="P13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="R13" s="3" t="n">
         <f aca="false">HEX2DEC(Q13)+256*HEX2DEC(P13)</f>
@@ -1800,68 +2040,68 @@
         <f aca="false">-(R13-19988)</f>
         <v>2475</v>
       </c>
-      <c r="T13" s="2" t="n">
+      <c r="T13" s="1" t="n">
         <v>13.29</v>
       </c>
-      <c r="U13" s="2" t="n">
+      <c r="U13" s="1" t="n">
         <v>-14.27</v>
       </c>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="1" t="n">
         <f aca="false">-U13</f>
         <v>14.27</v>
       </c>
-      <c r="W13" s="2" t="n">
-        <f aca="false">(T13+V13)/2</f>
-        <v>13.78</v>
+      <c r="W13" s="1" t="n">
+        <f aca="false">2*T13*V13/(T13+V13)</f>
+        <v>13.7625761973875</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="n">
         <f aca="false">HEX2DEC(C14)+256*HEX2DEC(B14)</f>
         <v>21837</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="1" t="n">
         <f aca="false">D14-20000+30</f>
         <v>1867</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="1" t="n">
         <v>-10.45</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="1" t="n">
         <f aca="false">-F14</f>
         <v>10.45</v>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G14)))</f>
         <v>9.82771536443747</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>10.12</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <f aca="false">(G14+I14)/2</f>
-        <v>10.285</v>
+      <c r="J14" s="1" t="n">
+        <f aca="false">2*G14*I14/(G14+I14)</f>
+        <v>10.2823529411765</v>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">0.00000012332*E14*E14+0.0052782*E14-0.058558</f>
-        <v>10.22569656748</v>
+        <f aca="false">0.000000104693*E14*E14+0.0053335*E14-0.08375</f>
+        <v>10.238821738477</v>
       </c>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
-      <c r="P14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="P14" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="R14" s="3" t="n">
         <f aca="false">HEX2DEC(Q14)+256*HEX2DEC(P14)</f>
@@ -1871,68 +2111,68 @@
         <f aca="false">-(R14-19988)</f>
         <v>2673</v>
       </c>
-      <c r="T14" s="2" t="n">
+      <c r="T14" s="1" t="n">
         <v>14.34</v>
       </c>
-      <c r="U14" s="2" t="n">
+      <c r="U14" s="1" t="n">
         <v>-15.39</v>
       </c>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="1" t="n">
         <f aca="false">-U14</f>
         <v>15.39</v>
       </c>
-      <c r="W14" s="2" t="n">
-        <f aca="false">(T14+V14)/2</f>
-        <v>14.865</v>
+      <c r="W14" s="1" t="n">
+        <f aca="false">2*T14*V14/(T14+V14)</f>
+        <v>14.846458123108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="n">
         <f aca="false">HEX2DEC(C15)+256*HEX2DEC(B15)</f>
         <v>22170</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="1" t="n">
         <f aca="false">D15-20000+30</f>
         <v>2200</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="1" t="n">
         <v>-12.5</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="1" t="n">
         <f aca="false">-F15</f>
         <v>12.5</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G15)))</f>
         <v>11.8130167143159</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="1" t="n">
         <v>12.04</v>
       </c>
-      <c r="J15" s="2" t="n">
-        <f aca="false">(G15+I15)/2</f>
-        <v>12.27</v>
+      <c r="J15" s="1" t="n">
+        <f aca="false">2*G15*I15/(G15+I15)</f>
+        <v>12.2656886715566</v>
       </c>
       <c r="K15" s="0" t="n">
-        <f aca="false">0.00000012332*E15*E15+0.0052782*E15-0.058558</f>
-        <v>12.1503508</v>
+        <f aca="false">0.000000104693*E15*E15+0.0053335*E15-0.08375</f>
+        <v>12.15666412</v>
       </c>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
-      <c r="P15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="P15" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="R15" s="3" t="n">
         <f aca="false">HEX2DEC(Q15)+256*HEX2DEC(P15)</f>
@@ -1942,68 +2182,68 @@
         <f aca="false">-(R15-19988)</f>
         <v>2868</v>
       </c>
-      <c r="T15" s="2" t="n">
+      <c r="T15" s="1" t="n">
         <v>15.25</v>
       </c>
-      <c r="U15" s="2" t="n">
+      <c r="U15" s="1" t="n">
         <v>-16.37</v>
       </c>
-      <c r="V15" s="2" t="n">
+      <c r="V15" s="1" t="n">
         <f aca="false">-U15</f>
         <v>16.37</v>
       </c>
-      <c r="W15" s="2" t="n">
-        <f aca="false">(T15+V15)/2</f>
-        <v>15.81</v>
+      <c r="W15" s="1" t="n">
+        <f aca="false">2*T15*V15/(T15+V15)</f>
+        <v>15.7901644528779</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <f aca="false">HEX2DEC(C16)+256*HEX2DEC(B16)</f>
         <v>22370</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="1" t="n">
         <f aca="false">D16-20000+30</f>
         <v>2400</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="1" t="n">
         <v>-14</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="1" t="n">
         <f aca="false">-F16</f>
         <v>14</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G16)))</f>
         <v>13.2854613179262</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <v>13.07</v>
       </c>
-      <c r="J16" s="2" t="n">
-        <f aca="false">(G16+I16)/2</f>
-        <v>13.535</v>
+      <c r="J16" s="1" t="n">
+        <f aca="false">2*G16*I16/(G16+I16)</f>
+        <v>13.5190247506465</v>
       </c>
       <c r="K16" s="0" t="n">
-        <f aca="false">0.00000012332*E16*E16+0.0052782*E16-0.058558</f>
-        <v>13.3194452</v>
+        <f aca="false">0.000000104693*E16*E16+0.0053335*E16-0.08375</f>
+        <v>13.31968168</v>
       </c>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
-      <c r="P16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>38</v>
+      <c r="P16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="R16" s="3" t="n">
         <f aca="false">HEX2DEC(Q16)+256*HEX2DEC(P16)</f>
@@ -2013,68 +2253,68 @@
         <f aca="false">-(R16-19988)</f>
         <v>3265</v>
       </c>
-      <c r="T16" s="2" t="n">
+      <c r="T16" s="1" t="n">
         <v>17.42</v>
       </c>
-      <c r="U16" s="2" t="n">
+      <c r="U16" s="1" t="n">
         <v>-19.22</v>
       </c>
-      <c r="V16" s="2" t="n">
+      <c r="V16" s="1" t="n">
         <f aca="false">-U16</f>
         <v>19.22</v>
       </c>
-      <c r="W16" s="2" t="n">
-        <f aca="false">(T16+V16)/2</f>
-        <v>18.32</v>
+      <c r="W16" s="1" t="n">
+        <f aca="false">2*T16*V16/(T16+V16)</f>
+        <v>18.2757860262009</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <f aca="false">HEX2DEC(C17)+256*HEX2DEC(B17)</f>
         <v>22585</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="1" t="n">
         <f aca="false">D17-20000+30</f>
         <v>2615</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="1" t="n">
         <v>-15.2</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="1" t="n">
         <f aca="false">-F17</f>
         <v>15.2</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G17)))</f>
         <v>14.477234445463</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>14.6</v>
       </c>
-      <c r="J17" s="2" t="n">
-        <f aca="false">(G17+I17)/2</f>
-        <v>14.9</v>
+      <c r="J17" s="1" t="n">
+        <f aca="false">2*G17*I17/(G17+I17)</f>
+        <v>14.8939597315436</v>
       </c>
       <c r="K17" s="0" t="n">
-        <f aca="false">0.00000012332*E17*E17+0.0052782*E17-0.058558</f>
-        <v>14.587224907</v>
+        <f aca="false">0.000000104693*E17*E17+0.0053335*E17-0.08375</f>
+        <v>14.579266789925</v>
       </c>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
-      <c r="P17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>40</v>
+      <c r="P17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="R17" s="3" t="n">
         <f aca="false">HEX2DEC(Q17)+256*HEX2DEC(P17)</f>
@@ -2084,68 +2324,68 @@
         <f aca="false">-(R17-19988)</f>
         <v>3535</v>
       </c>
-      <c r="T17" s="2" t="n">
+      <c r="T17" s="1" t="n">
         <v>19.12</v>
       </c>
-      <c r="U17" s="2" t="n">
+      <c r="U17" s="1" t="n">
         <v>-21.12</v>
       </c>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="1" t="n">
         <f aca="false">-U17</f>
         <v>21.12</v>
       </c>
-      <c r="W17" s="2" t="n">
-        <f aca="false">(T17+V17)/2</f>
-        <v>20.12</v>
+      <c r="W17" s="1" t="n">
+        <f aca="false">2*T17*V17/(T17+V17)</f>
+        <v>20.0702982107356</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="C18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <f aca="false">HEX2DEC(C18)+256*HEX2DEC(B18)</f>
         <v>22805</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="1" t="n">
         <f aca="false">D18-20000+30</f>
         <v>2835</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="1" t="n">
         <v>-16.39</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="1" t="n">
         <f aca="false">-F18</f>
         <v>16.39</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G18)))</f>
         <v>15.6725453373047</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <v>15.23</v>
       </c>
-      <c r="J18" s="2" t="n">
-        <f aca="false">(G18+I18)/2</f>
-        <v>15.81</v>
+      <c r="J18" s="1" t="n">
+        <f aca="false">2*G18*I18/(G18+I18)</f>
+        <v>15.7887223276407</v>
       </c>
       <c r="K18" s="0" t="n">
-        <f aca="false">0.00000012332*E18*E18+0.0052782*E18-0.058558</f>
-        <v>15.896289587</v>
+        <f aca="false">0.000000104693*E18*E18+0.0053335*E18-0.08375</f>
+        <v>15.878163696925</v>
       </c>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
-      <c r="P18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="P18" s="2" t="s">
         <v>63</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="R18" s="3" t="n">
         <f aca="false">HEX2DEC(Q18)+256*HEX2DEC(P18)</f>
@@ -2155,68 +2395,68 @@
         <f aca="false">-(R18-19988)</f>
         <v>3825</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="T18" s="1" t="n">
         <v>20.48</v>
       </c>
-      <c r="U18" s="2" t="n">
+      <c r="U18" s="1" t="n">
         <v>-23.15</v>
       </c>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="1" t="n">
         <f aca="false">-U18</f>
         <v>23.15</v>
       </c>
-      <c r="W18" s="2" t="n">
-        <f aca="false">(T18+V18)/2</f>
-        <v>21.815</v>
+      <c r="W18" s="1" t="n">
+        <f aca="false">2*T18*V18/(T18+V18)</f>
+        <v>21.7333027733211</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="n">
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <f aca="false">HEX2DEC(C19)+256*HEX2DEC(B19)</f>
         <v>23017</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="1" t="n">
         <f aca="false">D19-20000+30</f>
         <v>3047</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="1" t="n">
         <v>-17.58</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="1" t="n">
         <f aca="false">-F19</f>
         <v>17.58</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G19)))</f>
         <v>16.882552026743</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="1" t="n">
         <v>16.31</v>
       </c>
-      <c r="J19" s="2" t="n">
-        <f aca="false">(G19+I19)/2</f>
-        <v>16.945</v>
+      <c r="J19" s="1" t="n">
+        <f aca="false">2*G19*I19/(G19+I19)</f>
+        <v>16.9212038949543</v>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">0.00000012332*E19*E19+0.0052782*E19-0.058558</f>
-        <v>17.16904605388</v>
+        <f aca="false">0.000000104693*E19*E19+0.0053335*E19-0.08375</f>
+        <v>17.139416192837</v>
       </c>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
-      <c r="P19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="P19" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="R19" s="3" t="n">
         <f aca="false">HEX2DEC(Q19)+256*HEX2DEC(P19)</f>
@@ -2226,68 +2466,68 @@
         <f aca="false">-(R19-19988)</f>
         <v>4123</v>
       </c>
-      <c r="T19" s="2" t="n">
+      <c r="T19" s="1" t="n">
         <v>22.28</v>
       </c>
-      <c r="U19" s="2" t="n">
+      <c r="U19" s="1" t="n">
         <v>-25.21</v>
       </c>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="1" t="n">
         <f aca="false">-U19</f>
         <v>25.21</v>
       </c>
-      <c r="W19" s="2" t="n">
-        <f aca="false">(T19+V19)/2</f>
-        <v>23.745</v>
+      <c r="W19" s="1" t="n">
+        <f aca="false">2*T19*V19/(T19+V19)</f>
+        <v>23.6546136028638</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <f aca="false">HEX2DEC(C20)+256*HEX2DEC(B20)</f>
         <v>23295</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="1" t="n">
         <f aca="false">D20-20000+30</f>
         <v>3325</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="1" t="n">
         <v>-19.48</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="1" t="n">
         <f aca="false">-F20</f>
         <v>19.48</v>
       </c>
-      <c r="H20" s="2" t="n">
+      <c r="H20" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G20)))</f>
         <v>18.8483048244661</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="1" t="n">
         <v>18.03</v>
       </c>
-      <c r="J20" s="2" t="n">
-        <f aca="false">(G20+I20)/2</f>
-        <v>18.755</v>
+      <c r="J20" s="1" t="n">
+        <f aca="false">2*G20*I20/(G20+I20)</f>
+        <v>18.7269741402293</v>
       </c>
       <c r="K20" s="0" t="n">
-        <f aca="false">0.00000012332*E20*E20+0.0052782*E20-0.058558</f>
-        <v>18.854836675</v>
+        <f aca="false">0.000000104693*E20*E20+0.0053335*E20-0.08375</f>
+        <v>18.807584048125</v>
       </c>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
-      <c r="P20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="1" t="s">
+      <c r="P20" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="R20" s="3" t="n">
         <f aca="false">HEX2DEC(Q20)+256*HEX2DEC(P20)</f>
@@ -2297,68 +2537,68 @@
         <f aca="false">-(R20-19988)</f>
         <v>4460</v>
       </c>
-      <c r="T20" s="2" t="n">
+      <c r="T20" s="1" t="n">
         <v>24.15</v>
       </c>
-      <c r="U20" s="2" t="n">
+      <c r="U20" s="1" t="n">
         <v>-27.48</v>
       </c>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="1" t="n">
         <f aca="false">-U20</f>
         <v>27.48</v>
       </c>
-      <c r="W20" s="2" t="n">
-        <f aca="false">(T20+V20)/2</f>
-        <v>25.815</v>
+      <c r="W20" s="1" t="n">
+        <f aca="false">2*T20*V20/(T20+V20)</f>
+        <v>25.7076118535735</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="2" t="n">
         <f aca="false">HEX2DEC(C21)+256*HEX2DEC(B21)</f>
         <v>23510</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="1" t="n">
         <f aca="false">D21-20000+30</f>
         <v>3540</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="1" t="n">
         <v>-21.12</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="1" t="n">
         <f aca="false">-F21</f>
         <v>21.12</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G21)))</f>
         <v>20.5823715279906</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="1" t="n">
         <v>19.11</v>
       </c>
-      <c r="J21" s="2" t="n">
-        <f aca="false">(G21+I21)/2</f>
-        <v>20.115</v>
+      <c r="J21" s="1" t="n">
+        <f aca="false">2*G21*I21/(G21+I21)</f>
+        <v>20.0647874720358</v>
       </c>
       <c r="K21" s="0" t="n">
-        <f aca="false">0.00000012332*E21*E21+0.0052782*E21-0.058558</f>
-        <v>20.171666912</v>
+        <f aca="false">0.000000104693*E21*E21+0.0053335*E21-0.08375</f>
+        <v>20.1088107988</v>
       </c>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
-      <c r="P21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>32</v>
+      <c r="P21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="R21" s="3" t="n">
         <f aca="false">HEX2DEC(Q21)+256*HEX2DEC(P21)</f>
@@ -2368,68 +2608,68 @@
         <f aca="false">-(R21-19988)</f>
         <v>4803</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="1" t="n">
         <v>26.03</v>
       </c>
-      <c r="U21" s="2" t="n">
+      <c r="U21" s="1" t="n">
         <v>-30.22</v>
       </c>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="1" t="n">
         <f aca="false">-U21</f>
         <v>30.22</v>
       </c>
-      <c r="W21" s="2" t="n">
-        <f aca="false">(T21+V21)/2</f>
-        <v>28.125</v>
+      <c r="W21" s="1" t="n">
+        <f aca="false">2*T21*V21/(T21+V21)</f>
+        <v>27.9689457777778</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="n">
         <f aca="false">HEX2DEC(C22)+256*HEX2DEC(B22)</f>
         <v>23687</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="1" t="n">
         <f aca="false">D22-20000+30</f>
         <v>3717</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="1" t="n">
         <v>-22.3</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="1" t="n">
         <f aca="false">-F22</f>
         <v>22.3</v>
       </c>
-      <c r="H22" s="2" t="n">
+      <c r="H22" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G22)))</f>
         <v>21.8538018979565</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="1" t="n">
         <v>20.13</v>
       </c>
-      <c r="J22" s="2" t="n">
-        <f aca="false">(G22+I22)/2</f>
-        <v>21.215</v>
+      <c r="J22" s="1" t="n">
+        <f aca="false">2*G22*I22/(G22+I22)</f>
+        <v>21.1595097808155</v>
       </c>
       <c r="K22" s="0" t="n">
-        <f aca="false">0.00000012332*E22*E22+0.0052782*E22-0.058558</f>
-        <v>21.26431149548</v>
+        <f aca="false">0.000000104693*E22*E22+0.0053335*E22-0.08375</f>
+        <v>21.187317305677</v>
       </c>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
-      <c r="P22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q22" s="1" t="s">
+      <c r="P22" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="R22" s="3" t="n">
         <f aca="false">HEX2DEC(Q22)+256*HEX2DEC(P22)</f>
@@ -2439,68 +2679,68 @@
         <f aca="false">-(R22-19988)</f>
         <v>5023</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="1" t="n">
         <v>27.12</v>
       </c>
-      <c r="U22" s="2" t="n">
+      <c r="U22" s="1" t="n">
         <v>-32.07</v>
       </c>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="1" t="n">
         <f aca="false">-U22</f>
         <v>32.07</v>
       </c>
-      <c r="W22" s="2" t="n">
-        <f aca="false">(T22+V22)/2</f>
-        <v>29.595</v>
+      <c r="W22" s="1" t="n">
+        <f aca="false">2*T22*V22/(T22+V22)</f>
+        <v>29.3880182463254</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="n">
         <f aca="false">HEX2DEC(C23)+256*HEX2DEC(B23)</f>
         <v>23905</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="1" t="n">
         <f aca="false">D23-20000+30</f>
         <v>3935</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="1" t="n">
         <v>-24.04</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="1" t="n">
         <f aca="false">-F23</f>
         <v>24.04</v>
       </c>
-      <c r="H23" s="2" t="n">
+      <c r="H23" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G23)))</f>
         <v>23.7686318349973</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="1" t="n">
         <v>21.26</v>
       </c>
-      <c r="J23" s="2" t="n">
-        <f aca="false">(G23+I23)/2</f>
-        <v>22.65</v>
+      <c r="J23" s="1" t="n">
+        <f aca="false">2*G23*I23/(G23+I23)</f>
+        <v>22.5646975717439</v>
       </c>
       <c r="K23" s="0" t="n">
-        <f aca="false">0.00000012332*E23*E23+0.0052782*E23-0.058558</f>
-        <v>22.620673627</v>
+        <f aca="false">0.000000104693*E23*E23+0.0053335*E23-0.08375</f>
+        <v>22.524662467925</v>
       </c>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
-      <c r="P23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>64</v>
+      <c r="P23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="R23" s="3" t="n">
         <f aca="false">HEX2DEC(Q23)+256*HEX2DEC(P23)</f>
@@ -2510,60 +2750,60 @@
         <f aca="false">-(R23-19988)</f>
         <v>5163</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="1" t="n">
         <v>27.55</v>
       </c>
-      <c r="U23" s="2" t="n">
+      <c r="U23" s="1" t="n">
         <v>-33.11</v>
       </c>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="1" t="n">
         <f aca="false">-U23</f>
         <v>33.11</v>
       </c>
-      <c r="W23" s="2" t="n">
-        <f aca="false">(T23+V23)/2</f>
-        <v>30.33</v>
+      <c r="W23" s="1" t="n">
+        <f aca="false">2*T23*V23/(T23+V23)</f>
+        <v>30.0751895812727</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="C24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="2" t="n">
         <f aca="false">HEX2DEC(C24)+256*HEX2DEC(B24)</f>
         <v>24202</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="1" t="n">
         <f aca="false">D24-20000+30</f>
         <v>4232</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="1" t="n">
         <v>-26.13</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="1" t="n">
         <f aca="false">-F24</f>
         <v>26.13</v>
       </c>
-      <c r="H24" s="2" t="n">
+      <c r="H24" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G24)))</f>
         <v>26.1386936592388</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="1" t="n">
         <v>23.03</v>
       </c>
-      <c r="J24" s="2" t="n">
-        <f aca="false">(G24+I24)/2</f>
-        <v>24.58</v>
+      <c r="J24" s="1" t="n">
+        <f aca="false">2*G24*I24/(G24+I24)</f>
+        <v>24.4822579332791</v>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">0.00000012332*E24*E24+0.0052782*E24-0.058558</f>
-        <v>24.48742389568</v>
+        <f aca="false">0.000000104693*E24*E24+0.0053335*E24-0.08375</f>
+        <v>24.362655204032</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -2572,41 +2812,41 @@
       <c r="A25" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <f aca="false">HEX2DEC(C25)+256*HEX2DEC(B25)</f>
         <v>24440</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="1" t="n">
         <f aca="false">D25-20000+30</f>
         <v>4470</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="1" t="n">
         <v>-27.57</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="1" t="n">
         <f aca="false">-F25</f>
         <v>27.57</v>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G25)))</f>
         <v>27.8212484538614</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="1" t="n">
         <v>24.19</v>
       </c>
-      <c r="J25" s="2" t="n">
-        <f aca="false">(G25+I25)/2</f>
-        <v>25.88</v>
+      <c r="J25" s="1" t="n">
+        <f aca="false">2*G25*I25/(G25+I25)</f>
+        <v>25.7696406491499</v>
       </c>
       <c r="K25" s="0" t="n">
-        <f aca="false">0.00000012332*E25*E25+0.0052782*E25-0.058558</f>
-        <v>25.999040588</v>
+        <f aca="false">0.000000104693*E25*E25+0.0053335*E25-0.08375</f>
+        <v>25.8488553637</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -2615,41 +2855,41 @@
       <c r="A26" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="n">
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <f aca="false">HEX2DEC(C26)+256*HEX2DEC(B26)</f>
         <v>24742</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="1" t="n">
         <f aca="false">D26-20000+30</f>
         <v>4772</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="1" t="n">
         <v>-30.1</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="1" t="n">
         <f aca="false">-F26</f>
         <v>30.1</v>
       </c>
-      <c r="H26" s="2" t="n">
+      <c r="H26" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G26)))</f>
         <v>30.8882775673572</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="1" t="n">
         <v>25.36</v>
       </c>
-      <c r="J26" s="2" t="n">
-        <f aca="false">(G26+I26)/2</f>
-        <v>27.73</v>
+      <c r="J26" s="1" t="n">
+        <f aca="false">2*G26*I26/(G26+I26)</f>
+        <v>27.527443202308</v>
       </c>
       <c r="K26" s="0" t="n">
-        <f aca="false">0.00000012332*E26*E26+0.0052782*E26-0.058558</f>
-        <v>27.93725346688</v>
+        <f aca="false">0.000000104693*E26*E26+0.0053335*E26-0.08375</f>
+        <v>27.751779320912</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -2658,41 +2898,41 @@
       <c r="A27" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="1" t="n">
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <f aca="false">HEX2DEC(C27)+256*HEX2DEC(B27)</f>
         <v>25077</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="1" t="n">
         <f aca="false">D27-20000+30</f>
         <v>5107</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="1" t="n">
         <v>-33.01</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="G27" s="1" t="n">
         <f aca="false">-F27</f>
         <v>33.01</v>
       </c>
-      <c r="H27" s="2" t="n">
+      <c r="H27" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G27)))</f>
         <v>34.6169558647897</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="1" t="n">
         <v>27.43</v>
       </c>
-      <c r="J27" s="2" t="n">
-        <f aca="false">(G27+I27)/2</f>
-        <v>30.22</v>
+      <c r="J27" s="1" t="n">
+        <f aca="false">2*G27*I27/(G27+I27)</f>
+        <v>29.9624189278623</v>
       </c>
       <c r="K27" s="0" t="n">
-        <f aca="false">0.00000012332*E27*E27+0.0052782*E27-0.058558</f>
-        <v>30.11357369068</v>
+        <f aca="false">0.000000104693*E27*E27+0.0053335*E27-0.08375</f>
+        <v>29.884979640157</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -2701,41 +2941,45 @@
       <c r="A28" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <f aca="false">HEX2DEC(C28)+256*HEX2DEC(B28)</f>
         <v>25397</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="1" t="n">
         <f aca="false">D28-20000+30</f>
         <v>5427</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="1" t="n">
         <v>-35.45</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="1" t="n">
         <f aca="false">-F28</f>
         <v>35.45</v>
       </c>
-      <c r="H28" s="2" t="n">
+      <c r="H28" s="1" t="n">
         <f aca="false">0.93*DEGREES(TAN(RADIANS(G28)))</f>
         <v>37.9377596130131</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="1" t="n">
         <v>29.24</v>
       </c>
-      <c r="J28" s="2" t="n">
-        <f aca="false">(G28+I28)/2</f>
-        <v>32.345</v>
+      <c r="J28" s="1" t="n">
+        <f aca="false">2*G28*I28/(G28+I28)</f>
+        <v>32.0469315195548</v>
       </c>
       <c r="K28" s="0" t="n">
-        <f aca="false">0.00000012332*E28*E28+0.0052782*E28-0.058558</f>
-        <v>32.21829461228</v>
+        <f aca="false">0.000000104693*E28*E28+0.0053335*E28-0.08375</f>
+        <v>31.944607179997</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <f aca="false">J28</f>
+        <v>32.0469315195548</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>

--- a/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
+++ b/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
@@ -451,7 +451,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -598,76 +598,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.344347826086957</c:v>
+                  <c:v>0.34434783393918</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.13480176211454</c:v>
+                  <c:v>1.13480178803672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.04980487804878</c:v>
+                  <c:v>2.04980496130214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.36962025316456</c:v>
+                  <c:v>2.36962046970289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.11961165048544</c:v>
+                  <c:v>4.11961231993633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.18441658630665</c:v>
+                  <c:v>5.18441817942276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.42923794712286</c:v>
+                  <c:v>6.42924114825082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.88783544303798</c:v>
+                  <c:v>7.88791239269686</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.31304347826087</c:v>
+                  <c:v>9.31306073941659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.2823529411765</c:v>
+                  <c:v>10.2823814198515</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.2656886715566</c:v>
+                  <c:v>12.2657547356772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.5190247506465</c:v>
+                  <c:v>13.5193223390762</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.8939597315436</c:v>
+                  <c:v>14.894096405533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.7887223276407</c:v>
+                  <c:v>15.7892637075209</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16.9212038949543</c:v>
+                  <c:v>16.9218998652769</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.7269741402293</c:v>
+                  <c:v>18.7279794647583</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.0647874720358</c:v>
+                  <c:v>20.0668576966761</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.1595097808155</c:v>
+                  <c:v>21.1620565471646</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.5646975717439</c:v>
+                  <c:v>22.5691564639537</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.4822579332791</c:v>
+                  <c:v>24.4882843883451</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.7696406491499</c:v>
+                  <c:v>25.777190597834</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.527443202308</c:v>
+                  <c:v>27.5432989404943</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.9624189278623</c:v>
+                  <c:v>29.9863916920223</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.0469315195548</c:v>
+                  <c:v>32.0787700191075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,79 +792,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-0.08375</c:v>
+                  <c:v>-0.08083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5042017853</c:v>
+                  <c:v>0.5064110401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0946871412</c:v>
+                  <c:v>1.0962337604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.931034953125</c:v>
+                  <c:v>1.931729515625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.456985925312</c:v>
+                  <c:v>2.457195859904</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0301806768</c:v>
+                  <c:v>4.0291721456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1882506437</c:v>
+                  <c:v>5.1865615529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.618072847597</c:v>
+                  <c:v>6.615789479249</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0391495472</c:v>
+                  <c:v>8.0365376624</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.297142101172</c:v>
+                  <c:v>9.294451587524</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.238821738477</c:v>
+                  <c:v>10.236199728209</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.15666412</c:v>
+                  <c:v>12.15451004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.31968168</c:v>
+                  <c:v>13.31802056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.579266789925</c:v>
+                  <c:v>14.578312981225</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15.878163696925</c:v>
+                  <c:v>15.878123900225</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.139416192837</c:v>
+                  <c:v>17.140439240329</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.807584048125</c:v>
+                  <c:v>18.810271630625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.1088107988</c:v>
+                  <c:v>20.1129964196</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21.187317305677</c:v>
+                  <c:v>21.192874130609</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.524662467925</c:v>
+                  <c:v>22.532079307225</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.362655204032</c:v>
+                  <c:v>24.372910174144</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.8488553637</c:v>
+                  <c:v>25.8616377929</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.751779320912</c:v>
+                  <c:v>27.768093065104</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29.884979640157</c:v>
+                  <c:v>29.905634800769</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31.944607179997</c:v>
+                  <c:v>31.969826050049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,17 +1061,17 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.0469315195548</c:v>
+                  <c:v>32.0787700191075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="41420183"/>
-        <c:axId val="54794043"/>
+        <c:axId val="8158549"/>
+        <c:axId val="44055573"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41420183"/>
+        <c:axId val="8158549"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,11 +1088,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54794043"/>
+        <c:crossAx val="44055573"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54794043"/>
+        <c:axId val="44055573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1119,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41420183"/>
+        <c:crossAx val="8158549"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1158,16 +1158,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>781560</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>297000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>571320</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>86760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1175,7 +1175,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8934840" y="2005200"/>
+        <a:off x="9265680" y="1950840"/>
         <a:ext cx="10389240" cy="6357600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -1184,45 +1184,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>652320</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153280" y="0"/>
-          <a:ext cx="3913560" cy="233280"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1236,7 +1197,7 @@
   <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W4" activeCellId="0" sqref="W4"/>
+      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1375,12 +1336,12 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="n">
-        <f aca="false">2*G4*I4/(G4+I4)</f>
+        <f aca="false">ATAN(2*TAN(RADIANS(G4))*TAN(RADIANS(I4))/(TAN(RADIANS(G4))+TAN(RADIANS(I4))))*180/PI()</f>
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <f aca="false">0.000000104693*E4*E4+0.0053335*E4-0.08375</f>
-        <v>-0.08375</v>
+        <f aca="false">0.000000106681*E4*E4+0.00532682*E4-0.08083</f>
+        <v>-0.08083</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>0</v>
@@ -1412,8 +1373,8 @@
         <v>-0.02</v>
       </c>
       <c r="W4" s="1" t="n">
-        <f aca="false">2*T4*V4/(T4+V4)</f>
-        <v>-0.0311111111111111</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T4))*TAN(RADIANS(V4))/(TAN(RADIANS(T4))+TAN(RADIANS(V4))))*180/PI()</f>
+        <v>-0.0311111124761094</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,12 +1410,12 @@
         <v>0.33</v>
       </c>
       <c r="J5" s="1" t="n">
-        <f aca="false">2*G5*I5/(G5+I5)</f>
-        <v>0.344347826086957</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G5))*TAN(RADIANS(I5))/(TAN(RADIANS(G5))+TAN(RADIANS(I5))))*180/PI()</f>
+        <v>0.34434783393918</v>
       </c>
       <c r="K5" s="0" t="n">
-        <f aca="false">0.000000104693*E5*E5+0.0053335*E5-0.08375</f>
-        <v>0.5042017853</v>
+        <f aca="false">0.000000106681*E5*E5+0.00532682*E5-0.08083</f>
+        <v>0.5064110401</v>
       </c>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
@@ -1483,8 +1444,8 @@
         <v>1.31</v>
       </c>
       <c r="W5" s="1" t="n">
-        <f aca="false">2*T5*V5/(T5+V5)</f>
-        <v>1.28968992248062</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T5))*TAN(RADIANS(V5))/(TAN(RADIANS(T5))+TAN(RADIANS(V5))))*180/PI()</f>
+        <v>1.28968997485141</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1520,12 +1481,12 @@
         <v>1.12</v>
       </c>
       <c r="J6" s="1" t="n">
-        <f aca="false">2*G6*I6/(G6+I6)</f>
-        <v>1.13480176211454</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G6))*TAN(RADIANS(I6))/(TAN(RADIANS(G6))+TAN(RADIANS(I6))))*180/PI()</f>
+        <v>1.13480178803672</v>
       </c>
       <c r="K6" s="0" t="n">
-        <f aca="false">0.000000104693*E6*E6+0.0053335*E6-0.08375</f>
-        <v>1.0946871412</v>
+        <f aca="false">0.000000106681*E6*E6+0.00532682*E6-0.08083</f>
+        <v>1.0962337604</v>
       </c>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
@@ -1554,8 +1515,8 @@
         <v>3.05</v>
       </c>
       <c r="W6" s="1" t="n">
-        <f aca="false">2*T6*V6/(T6+V6)</f>
-        <v>2.79538188277087</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T6))*TAN(RADIANS(V6))/(TAN(RADIANS(T6))+TAN(RADIANS(V6))))*180/PI()</f>
+        <v>2.795397451344</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,12 +1552,12 @@
         <v>2.03</v>
       </c>
       <c r="J7" s="1" t="n">
-        <f aca="false">2*G7*I7/(G7+I7)</f>
-        <v>2.04980487804878</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G7))*TAN(RADIANS(I7))/(TAN(RADIANS(G7))+TAN(RADIANS(I7))))*180/PI()</f>
+        <v>2.04980496130214</v>
       </c>
       <c r="K7" s="0" t="n">
-        <f aca="false">0.000000104693*E7*E7+0.0053335*E7-0.08375</f>
-        <v>1.931034953125</v>
+        <f aca="false">0.000000106681*E7*E7+0.00532682*E7-0.08083</f>
+        <v>1.931729515625</v>
       </c>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
@@ -1625,8 +1586,8 @@
         <v>4.4</v>
       </c>
       <c r="W7" s="1" t="n">
-        <f aca="false">2*T7*V7/(T7+V7)</f>
-        <v>4.35453501722158</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T7))*TAN(RADIANS(V7))/(TAN(RADIANS(T7))+TAN(RADIANS(V7))))*180/PI()</f>
+        <v>4.35453591283681</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,12 +1623,12 @@
         <v>2.34</v>
       </c>
       <c r="J8" s="1" t="n">
-        <f aca="false">2*G8*I8/(G8+I8)</f>
-        <v>2.36962025316456</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G8))*TAN(RADIANS(I8))/(TAN(RADIANS(G8))+TAN(RADIANS(I8))))*180/PI()</f>
+        <v>2.36962046970289</v>
       </c>
       <c r="K8" s="0" t="n">
-        <f aca="false">0.000000104693*E8*E8+0.0053335*E8-0.08375</f>
-        <v>2.456985925312</v>
+        <f aca="false">0.000000106681*E8*E8+0.00532682*E8-0.08083</f>
+        <v>2.457195859904</v>
       </c>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -1696,8 +1657,8 @@
         <v>6.34</v>
       </c>
       <c r="W8" s="1" t="n">
-        <f aca="false">2*T8*V8/(T8+V8)</f>
-        <v>6.27432669322709</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T8))*TAN(RADIANS(V8))/(TAN(RADIANS(T8))+TAN(RADIANS(V8))))*180/PI()</f>
+        <v>6.27432938679979</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,12 +1694,12 @@
         <v>4.08</v>
       </c>
       <c r="J9" s="1" t="n">
-        <f aca="false">2*G9*I9/(G9+I9)</f>
-        <v>4.11961165048544</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G9))*TAN(RADIANS(I9))/(TAN(RADIANS(G9))+TAN(RADIANS(I9))))*180/PI()</f>
+        <v>4.11961231993633</v>
       </c>
       <c r="K9" s="0" t="n">
-        <f aca="false">0.000000104693*E9*E9+0.0053335*E9-0.08375</f>
-        <v>4.0301806768</v>
+        <f aca="false">0.000000106681*E9*E9+0.00532682*E9-0.08083</f>
+        <v>4.0291721456</v>
       </c>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -1767,8 +1728,8 @@
         <v>7.54</v>
       </c>
       <c r="W9" s="1" t="n">
-        <f aca="false">2*T9*V9/(T9+V9)</f>
-        <v>7.44378777703156</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T9))*TAN(RADIANS(V9))/(TAN(RADIANS(T9))+TAN(RADIANS(V9))))*180/PI()</f>
+        <v>7.44379460504353</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1804,12 +1765,12 @@
         <v>5.13</v>
       </c>
       <c r="J10" s="1" t="n">
-        <f aca="false">2*G10*I10/(G10+I10)</f>
-        <v>5.18441658630665</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G10))*TAN(RADIANS(I10))/(TAN(RADIANS(G10))+TAN(RADIANS(I10))))*180/PI()</f>
+        <v>5.18441817942276</v>
       </c>
       <c r="K10" s="0" t="n">
-        <f aca="false">0.000000104693*E10*E10+0.0053335*E10-0.08375</f>
-        <v>5.1882506437</v>
+        <f aca="false">0.000000106681*E10*E10+0.00532682*E10-0.08083</f>
+        <v>5.1865615529</v>
       </c>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
@@ -1838,8 +1799,8 @@
         <v>9.24</v>
       </c>
       <c r="W10" s="1" t="n">
-        <f aca="false">2*T10*V10/(T10+V10)</f>
-        <v>8.90315199102636</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T10))*TAN(RADIANS(V10))/(TAN(RADIANS(T10))+TAN(RADIANS(V10))))*180/PI()</f>
+        <v>8.9032475077918</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,12 +1836,12 @@
         <v>6.36</v>
       </c>
       <c r="J11" s="1" t="n">
-        <f aca="false">2*G11*I11/(G11+I11)</f>
-        <v>6.42923794712286</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G11))*TAN(RADIANS(I11))/(TAN(RADIANS(G11))+TAN(RADIANS(I11))))*180/PI()</f>
+        <v>6.42924114825082</v>
       </c>
       <c r="K11" s="0" t="n">
-        <f aca="false">0.000000104693*E11*E11+0.0053335*E11-0.08375</f>
-        <v>6.618072847597</v>
+        <f aca="false">0.000000106681*E11*E11+0.00532682*E11-0.08083</f>
+        <v>6.615789479249</v>
       </c>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
@@ -1909,8 +1870,8 @@
         <v>11.24</v>
       </c>
       <c r="W11" s="1" t="n">
-        <f aca="false">2*T11*V11/(T11+V11)</f>
-        <v>10.8467034990792</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T11))*TAN(RADIANS(V11))/(TAN(RADIANS(T11))+TAN(RADIANS(V11))))*180/PI()</f>
+        <v>10.8468627288076</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,12 +1907,12 @@
         <v>7.59</v>
       </c>
       <c r="J12" s="1" t="n">
-        <f aca="false">2*G12*I12/(G12+I12)</f>
-        <v>7.88783544303798</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G12))*TAN(RADIANS(I12))/(TAN(RADIANS(G12))+TAN(RADIANS(I12))))*180/PI()</f>
+        <v>7.88791239269686</v>
       </c>
       <c r="K12" s="0" t="n">
-        <f aca="false">0.000000104693*E12*E12+0.0053335*E12-0.08375</f>
-        <v>8.0391495472</v>
+        <f aca="false">0.000000106681*E12*E12+0.00532682*E12-0.08083</f>
+        <v>8.0365376624</v>
       </c>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
@@ -1980,8 +1941,8 @@
         <v>12.57</v>
       </c>
       <c r="W12" s="1" t="n">
-        <f aca="false">2*T12*V12/(T12+V12)</f>
-        <v>12.3408991494532</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T12))*TAN(RADIANS(V12))/(TAN(RADIANS(T12))+TAN(RADIANS(V12))))*180/PI()</f>
+        <v>12.3409627636954</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,12 +1978,12 @@
         <v>9.18</v>
       </c>
       <c r="J13" s="1" t="n">
-        <f aca="false">2*G13*I13/(G13+I13)</f>
-        <v>9.31304347826087</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G13))*TAN(RADIANS(I13))/(TAN(RADIANS(G13))+TAN(RADIANS(I13))))*180/PI()</f>
+        <v>9.31306073941659</v>
       </c>
       <c r="K13" s="0" t="n">
-        <f aca="false">0.000000104693*E13*E13+0.0053335*E13-0.08375</f>
-        <v>9.297142101172</v>
+        <f aca="false">0.000000106681*E13*E13+0.00532682*E13-0.08083</f>
+        <v>9.294451587524</v>
       </c>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -2051,8 +2012,8 @@
         <v>14.27</v>
       </c>
       <c r="W13" s="1" t="n">
-        <f aca="false">2*T13*V13/(T13+V13)</f>
-        <v>13.7625761973875</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T13))*TAN(RADIANS(V13))/(TAN(RADIANS(T13))+TAN(RADIANS(V13))))*180/PI()</f>
+        <v>13.7629126175757</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2088,12 +2049,12 @@
         <v>10.12</v>
       </c>
       <c r="J14" s="1" t="n">
-        <f aca="false">2*G14*I14/(G14+I14)</f>
-        <v>10.2823529411765</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G14))*TAN(RADIANS(I14))/(TAN(RADIANS(G14))+TAN(RADIANS(I14))))*180/PI()</f>
+        <v>10.2823814198515</v>
       </c>
       <c r="K14" s="0" t="n">
-        <f aca="false">0.000000104693*E14*E14+0.0053335*E14-0.08375</f>
-        <v>10.238821738477</v>
+        <f aca="false">0.000000106681*E14*E14+0.00532682*E14-0.08083</f>
+        <v>10.236199728209</v>
       </c>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
@@ -2122,8 +2083,8 @@
         <v>15.39</v>
       </c>
       <c r="W14" s="1" t="n">
-        <f aca="false">2*T14*V14/(T14+V14)</f>
-        <v>14.846458123108</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T14))*TAN(RADIANS(V14))/(TAN(RADIANS(T14))+TAN(RADIANS(V14))))*180/PI()</f>
+        <v>14.846875010779</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2159,12 +2120,12 @@
         <v>12.04</v>
       </c>
       <c r="J15" s="1" t="n">
-        <f aca="false">2*G15*I15/(G15+I15)</f>
-        <v>12.2656886715566</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G15))*TAN(RADIANS(I15))/(TAN(RADIANS(G15))+TAN(RADIANS(I15))))*180/PI()</f>
+        <v>12.2657547356772</v>
       </c>
       <c r="K15" s="0" t="n">
-        <f aca="false">0.000000104693*E15*E15+0.0053335*E15-0.08375</f>
-        <v>12.15666412</v>
+        <f aca="false">0.000000106681*E15*E15+0.00532682*E15-0.08083</f>
+        <v>12.15451004</v>
       </c>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
@@ -2193,8 +2154,8 @@
         <v>16.37</v>
       </c>
       <c r="W15" s="1" t="n">
-        <f aca="false">2*T15*V15/(T15+V15)</f>
-        <v>15.7901644528779</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T15))*TAN(RADIANS(V15))/(TAN(RADIANS(T15))+TAN(RADIANS(V15))))*180/PI()</f>
+        <v>15.790669229347</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,12 +2191,12 @@
         <v>13.07</v>
       </c>
       <c r="J16" s="1" t="n">
-        <f aca="false">2*G16*I16/(G16+I16)</f>
-        <v>13.5190247506465</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G16))*TAN(RADIANS(I16))/(TAN(RADIANS(G16))+TAN(RADIANS(I16))))*180/PI()</f>
+        <v>13.5193223390762</v>
       </c>
       <c r="K16" s="0" t="n">
-        <f aca="false">0.000000104693*E16*E16+0.0053335*E16-0.08375</f>
-        <v>13.31968168</v>
+        <f aca="false">0.000000106681*E16*E16+0.00532682*E16-0.08083</f>
+        <v>13.31802056</v>
       </c>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
@@ -2264,8 +2225,8 @@
         <v>19.22</v>
       </c>
       <c r="W16" s="1" t="n">
-        <f aca="false">2*T16*V16/(T16+V16)</f>
-        <v>18.2757860262009</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T16))*TAN(RADIANS(V16))/(TAN(RADIANS(T16))+TAN(RADIANS(V16))))*180/PI()</f>
+        <v>18.2772961401241</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,12 +2262,12 @@
         <v>14.6</v>
       </c>
       <c r="J17" s="1" t="n">
-        <f aca="false">2*G17*I17/(G17+I17)</f>
-        <v>14.8939597315436</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G17))*TAN(RADIANS(I17))/(TAN(RADIANS(G17))+TAN(RADIANS(I17))))*180/PI()</f>
+        <v>14.894096405533</v>
       </c>
       <c r="K17" s="0" t="n">
-        <f aca="false">0.000000104693*E17*E17+0.0053335*E17-0.08375</f>
-        <v>14.579266789925</v>
+        <f aca="false">0.000000106681*E17*E17+0.00532682*E17-0.08083</f>
+        <v>14.578312981225</v>
       </c>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
@@ -2335,8 +2296,8 @@
         <v>21.12</v>
       </c>
       <c r="W17" s="1" t="n">
-        <f aca="false">2*T17*V17/(T17+V17)</f>
-        <v>20.0702982107356</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T17))*TAN(RADIANS(V17))/(TAN(RADIANS(T17))+TAN(RADIANS(V17))))*180/PI()</f>
+        <v>20.0723485072671</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2372,12 +2333,12 @@
         <v>15.23</v>
       </c>
       <c r="J18" s="1" t="n">
-        <f aca="false">2*G18*I18/(G18+I18)</f>
-        <v>15.7887223276407</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G18))*TAN(RADIANS(I18))/(TAN(RADIANS(G18))+TAN(RADIANS(I18))))*180/PI()</f>
+        <v>15.7892637075209</v>
       </c>
       <c r="K18" s="0" t="n">
-        <f aca="false">0.000000104693*E18*E18+0.0053335*E18-0.08375</f>
-        <v>15.878163696925</v>
+        <f aca="false">0.000000106681*E18*E18+0.00532682*E18-0.08083</f>
+        <v>15.878123900225</v>
       </c>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -2406,8 +2367,8 @@
         <v>23.15</v>
       </c>
       <c r="W18" s="1" t="n">
-        <f aca="false">2*T18*V18/(T18+V18)</f>
-        <v>21.7333027733211</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T18))*TAN(RADIANS(V18))/(TAN(RADIANS(T18))+TAN(RADIANS(V18))))*180/PI()</f>
+        <v>21.7372611380249</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2443,12 +2404,12 @@
         <v>16.31</v>
       </c>
       <c r="J19" s="1" t="n">
-        <f aca="false">2*G19*I19/(G19+I19)</f>
-        <v>16.9212038949543</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G19))*TAN(RADIANS(I19))/(TAN(RADIANS(G19))+TAN(RADIANS(I19))))*180/PI()</f>
+        <v>16.9218998652769</v>
       </c>
       <c r="K19" s="0" t="n">
-        <f aca="false">0.000000104693*E19*E19+0.0053335*E19-0.08375</f>
-        <v>17.139416192837</v>
+        <f aca="false">0.000000106681*E19*E19+0.00532682*E19-0.08083</f>
+        <v>17.140439240329</v>
       </c>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -2477,8 +2438,8 @@
         <v>25.21</v>
       </c>
       <c r="W19" s="1" t="n">
-        <f aca="false">2*T19*V19/(T19+V19)</f>
-        <v>23.6546136028638</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T19))*TAN(RADIANS(V19))/(TAN(RADIANS(T19))+TAN(RADIANS(V19))))*180/PI()</f>
+        <v>23.6598114236956</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,12 +2475,12 @@
         <v>18.03</v>
       </c>
       <c r="J20" s="1" t="n">
-        <f aca="false">2*G20*I20/(G20+I20)</f>
-        <v>18.7269741402293</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G20))*TAN(RADIANS(I20))/(TAN(RADIANS(G20))+TAN(RADIANS(I20))))*180/PI()</f>
+        <v>18.7279794647583</v>
       </c>
       <c r="K20" s="0" t="n">
-        <f aca="false">0.000000104693*E20*E20+0.0053335*E20-0.08375</f>
-        <v>18.807584048125</v>
+        <f aca="false">0.000000106681*E20*E20+0.00532682*E20-0.08083</f>
+        <v>18.810271630625</v>
       </c>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
@@ -2548,8 +2509,8 @@
         <v>27.48</v>
       </c>
       <c r="W20" s="1" t="n">
-        <f aca="false">2*T20*V20/(T20+V20)</f>
-        <v>25.7076118535735</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T20))*TAN(RADIANS(V20))/(TAN(RADIANS(T20))+TAN(RADIANS(V20))))*180/PI()</f>
+        <v>25.7149225492862</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,12 +2546,12 @@
         <v>19.11</v>
       </c>
       <c r="J21" s="1" t="n">
-        <f aca="false">2*G21*I21/(G21+I21)</f>
-        <v>20.0647874720358</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G21))*TAN(RADIANS(I21))/(TAN(RADIANS(G21))+TAN(RADIANS(I21))))*180/PI()</f>
+        <v>20.0668576966761</v>
       </c>
       <c r="K21" s="0" t="n">
-        <f aca="false">0.000000104693*E21*E21+0.0053335*E21-0.08375</f>
-        <v>20.1088107988</v>
+        <f aca="false">0.000000106681*E21*E21+0.00532682*E21-0.08083</f>
+        <v>20.1129964196</v>
       </c>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
@@ -2619,8 +2580,8 @@
         <v>30.22</v>
       </c>
       <c r="W21" s="1" t="n">
-        <f aca="false">2*T21*V21/(T21+V21)</f>
-        <v>27.9689457777778</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T21))*TAN(RADIANS(V21))/(TAN(RADIANS(T21))+TAN(RADIANS(V21))))*180/PI()</f>
+        <v>27.9815584493505</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,12 +2617,12 @@
         <v>20.13</v>
       </c>
       <c r="J22" s="1" t="n">
-        <f aca="false">2*G22*I22/(G22+I22)</f>
-        <v>21.1595097808155</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G22))*TAN(RADIANS(I22))/(TAN(RADIANS(G22))+TAN(RADIANS(I22))))*180/PI()</f>
+        <v>21.1620565471646</v>
       </c>
       <c r="K22" s="0" t="n">
-        <f aca="false">0.000000104693*E22*E22+0.0053335*E22-0.08375</f>
-        <v>21.187317305677</v>
+        <f aca="false">0.000000106681*E22*E22+0.00532682*E22-0.08083</f>
+        <v>21.192874130609</v>
       </c>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
@@ -2690,8 +2651,8 @@
         <v>32.07</v>
       </c>
       <c r="W22" s="1" t="n">
-        <f aca="false">2*T22*V22/(T22+V22)</f>
-        <v>29.3880182463254</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T22))*TAN(RADIANS(V22))/(TAN(RADIANS(T22))+TAN(RADIANS(V22))))*180/PI()</f>
+        <v>29.406528293967</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,12 +2688,12 @@
         <v>21.26</v>
       </c>
       <c r="J23" s="1" t="n">
-        <f aca="false">2*G23*I23/(G23+I23)</f>
-        <v>22.5646975717439</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G23))*TAN(RADIANS(I23))/(TAN(RADIANS(G23))+TAN(RADIANS(I23))))*180/PI()</f>
+        <v>22.5691564639537</v>
       </c>
       <c r="K23" s="0" t="n">
-        <f aca="false">0.000000104693*E23*E23+0.0053335*E23-0.08375</f>
-        <v>22.524662467925</v>
+        <f aca="false">0.000000106681*E23*E23+0.00532682*E23-0.08083</f>
+        <v>22.532079307225</v>
       </c>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
@@ -2761,8 +2722,8 @@
         <v>33.11</v>
       </c>
       <c r="W23" s="1" t="n">
-        <f aca="false">2*T23*V23/(T23+V23)</f>
-        <v>30.0751895812727</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(T23))*TAN(RADIANS(V23))/(TAN(RADIANS(T23))+TAN(RADIANS(V23))))*180/PI()</f>
+        <v>30.0990863616643</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,12 +2759,12 @@
         <v>23.03</v>
       </c>
       <c r="J24" s="1" t="n">
-        <f aca="false">2*G24*I24/(G24+I24)</f>
-        <v>24.4822579332791</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G24))*TAN(RADIANS(I24))/(TAN(RADIANS(G24))+TAN(RADIANS(I24))))*180/PI()</f>
+        <v>24.4882843883451</v>
       </c>
       <c r="K24" s="0" t="n">
-        <f aca="false">0.000000104693*E24*E24+0.0053335*E24-0.08375</f>
-        <v>24.362655204032</v>
+        <f aca="false">0.000000106681*E24*E24+0.00532682*E24-0.08083</f>
+        <v>24.372910174144</v>
       </c>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -2841,12 +2802,12 @@
         <v>24.19</v>
       </c>
       <c r="J25" s="1" t="n">
-        <f aca="false">2*G25*I25/(G25+I25)</f>
-        <v>25.7696406491499</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G25))*TAN(RADIANS(I25))/(TAN(RADIANS(G25))+TAN(RADIANS(I25))))*180/PI()</f>
+        <v>25.777190597834</v>
       </c>
       <c r="K25" s="0" t="n">
-        <f aca="false">0.000000104693*E25*E25+0.0053335*E25-0.08375</f>
-        <v>25.8488553637</v>
+        <f aca="false">0.000000106681*E25*E25+0.00532682*E25-0.08083</f>
+        <v>25.8616377929</v>
       </c>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -2884,12 +2845,12 @@
         <v>25.36</v>
       </c>
       <c r="J26" s="1" t="n">
-        <f aca="false">2*G26*I26/(G26+I26)</f>
-        <v>27.527443202308</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G26))*TAN(RADIANS(I26))/(TAN(RADIANS(G26))+TAN(RADIANS(I26))))*180/PI()</f>
+        <v>27.5432989404943</v>
       </c>
       <c r="K26" s="0" t="n">
-        <f aca="false">0.000000104693*E26*E26+0.0053335*E26-0.08375</f>
-        <v>27.751779320912</v>
+        <f aca="false">0.000000106681*E26*E26+0.00532682*E26-0.08083</f>
+        <v>27.768093065104</v>
       </c>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -2927,12 +2888,12 @@
         <v>27.43</v>
       </c>
       <c r="J27" s="1" t="n">
-        <f aca="false">2*G27*I27/(G27+I27)</f>
-        <v>29.9624189278623</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G27))*TAN(RADIANS(I27))/(TAN(RADIANS(G27))+TAN(RADIANS(I27))))*180/PI()</f>
+        <v>29.9863916920223</v>
       </c>
       <c r="K27" s="0" t="n">
-        <f aca="false">0.000000104693*E27*E27+0.0053335*E27-0.08375</f>
-        <v>29.884979640157</v>
+        <f aca="false">0.000000106681*E27*E27+0.00532682*E27-0.08083</f>
+        <v>29.905634800769</v>
       </c>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -2970,16 +2931,16 @@
         <v>29.24</v>
       </c>
       <c r="J28" s="1" t="n">
-        <f aca="false">2*G28*I28/(G28+I28)</f>
-        <v>32.0469315195548</v>
+        <f aca="false">ATAN(2*TAN(RADIANS(G28))*TAN(RADIANS(I28))/(TAN(RADIANS(G28))+TAN(RADIANS(I28))))*180/PI()</f>
+        <v>32.0787700191075</v>
       </c>
       <c r="K28" s="0" t="n">
-        <f aca="false">0.000000104693*E28*E28+0.0053335*E28-0.08375</f>
-        <v>31.944607179997</v>
+        <f aca="false">0.000000106681*E28*E28+0.00532682*E28-0.08083</f>
+        <v>31.969826050049</v>
       </c>
       <c r="L28" s="1" t="n">
         <f aca="false">J28</f>
-        <v>32.0469315195548</v>
+        <v>32.0787700191075</v>
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>

--- a/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
+++ b/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="141" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="140" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
   <si>
     <t>Rodando o volante para o lado esquerdo (anti-horário)</t>
   </si>
@@ -282,6 +282,93 @@
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>trava</t>
+  </si>
+  <si>
+    <t>3929</t>
+  </si>
+  <si>
+    <t>4e4f</t>
+  </si>
+  <si>
+    <t>5822</t>
+  </si>
+  <si>
+    <t>4e4a</t>
+  </si>
+  <si>
+    <t>3935</t>
+  </si>
+  <si>
+    <t>4e5e</t>
+  </si>
+  <si>
+    <t>4e57</t>
+  </si>
+  <si>
+    <t>3a82</t>
+  </si>
+  <si>
+    <t>4fab</t>
+  </si>
+  <si>
+    <t>5976</t>
+  </si>
+  <si>
+    <t>4fa3</t>
+  </si>
+  <si>
+    <t>3924</t>
+  </si>
+  <si>
+    <t>4e61</t>
+  </si>
+  <si>
+    <t>4e54</t>
+  </si>
+  <si>
+    <t>37c8</t>
+  </si>
+  <si>
+    <t>4d0b</t>
+  </si>
+  <si>
+    <t>56c7</t>
+  </si>
+  <si>
+    <t>4d03</t>
+  </si>
+  <si>
+    <t>37ee</t>
+  </si>
+  <si>
+    <t>4d26</t>
+  </si>
+  <si>
+    <t>56e5</t>
+  </si>
+  <si>
+    <t>4d21</t>
+  </si>
+  <si>
+    <t>3979</t>
+  </si>
+  <si>
+    <t>4ea4</t>
+  </si>
+  <si>
+    <t>5868</t>
+  </si>
+  <si>
+    <t>4e95</t>
   </si>
 </sst>
 </file>
@@ -451,7 +538,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -486,7 +573,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -699,7 +786,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -896,7 +983,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="7"/>
+            <c:size val="6"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1067,11 +1154,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="8158549"/>
-        <c:axId val="44055573"/>
+        <c:axId val="57990120"/>
+        <c:axId val="12854950"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8158549"/>
+        <c:axId val="57990120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,11 +1175,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="44055573"/>
+        <c:crossAx val="12854950"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44055573"/>
+        <c:axId val="12854950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1119,7 +1206,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="8158549"/>
+        <c:crossAx val="57990120"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1159,15 +1246,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>297000</xdr:colOff>
+      <xdr:colOff>324000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1175,8 +1262,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9265680" y="1950840"/>
-        <a:ext cx="10389240" cy="6357600"/>
+        <a:off x="9292680" y="1941840"/>
+        <a:ext cx="10388880" cy="6357240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1192,12 +1279,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W28"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1221,6 +1309,7 @@
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
+      <c r="L1" s="0"/>
       <c r="M1" s="0"/>
       <c r="N1" s="0"/>
       <c r="V1" s="0"/>
@@ -1238,6 +1327,7 @@
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
+      <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="P2" s="3" t="s">
@@ -1417,6 +1507,7 @@
         <f aca="false">0.000000106681*E5*E5+0.00532682*E5-0.08083</f>
         <v>0.5064110401</v>
       </c>
+      <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="P5" s="2" t="s">
@@ -1488,6 +1579,7 @@
         <f aca="false">0.000000106681*E6*E6+0.00532682*E6-0.08083</f>
         <v>1.0962337604</v>
       </c>
+      <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="P6" s="2" t="s">
@@ -1559,6 +1651,7 @@
         <f aca="false">0.000000106681*E7*E7+0.00532682*E7-0.08083</f>
         <v>1.931729515625</v>
       </c>
+      <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="P7" s="2" t="s">
@@ -1630,6 +1723,7 @@
         <f aca="false">0.000000106681*E8*E8+0.00532682*E8-0.08083</f>
         <v>2.457195859904</v>
       </c>
+      <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="P8" s="2" t="s">
@@ -1701,6 +1795,7 @@
         <f aca="false">0.000000106681*E9*E9+0.00532682*E9-0.08083</f>
         <v>4.0291721456</v>
       </c>
+      <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
       <c r="P9" s="2" t="s">
@@ -1772,6 +1867,7 @@
         <f aca="false">0.000000106681*E10*E10+0.00532682*E10-0.08083</f>
         <v>5.1865615529</v>
       </c>
+      <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="P10" s="2" t="s">
@@ -1843,6 +1939,7 @@
         <f aca="false">0.000000106681*E11*E11+0.00532682*E11-0.08083</f>
         <v>6.615789479249</v>
       </c>
+      <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="P11" s="2" t="s">
@@ -1914,6 +2011,7 @@
         <f aca="false">0.000000106681*E12*E12+0.00532682*E12-0.08083</f>
         <v>8.0365376624</v>
       </c>
+      <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
       <c r="P12" s="2" t="s">
@@ -1985,6 +2083,7 @@
         <f aca="false">0.000000106681*E13*E13+0.00532682*E13-0.08083</f>
         <v>9.294451587524</v>
       </c>
+      <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="P13" s="2" t="s">
@@ -2056,6 +2155,7 @@
         <f aca="false">0.000000106681*E14*E14+0.00532682*E14-0.08083</f>
         <v>10.236199728209</v>
       </c>
+      <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="P14" s="2" t="s">
@@ -2127,6 +2227,7 @@
         <f aca="false">0.000000106681*E15*E15+0.00532682*E15-0.08083</f>
         <v>12.15451004</v>
       </c>
+      <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="P15" s="2" t="s">
@@ -2198,6 +2299,7 @@
         <f aca="false">0.000000106681*E16*E16+0.00532682*E16-0.08083</f>
         <v>13.31802056</v>
       </c>
+      <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
       <c r="P16" s="2" t="s">
@@ -2269,6 +2371,7 @@
         <f aca="false">0.000000106681*E17*E17+0.00532682*E17-0.08083</f>
         <v>14.578312981225</v>
       </c>
+      <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
       <c r="P17" s="2" t="s">
@@ -2340,6 +2443,7 @@
         <f aca="false">0.000000106681*E18*E18+0.00532682*E18-0.08083</f>
         <v>15.878123900225</v>
       </c>
+      <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
       <c r="P18" s="2" t="s">
@@ -2411,6 +2515,7 @@
         <f aca="false">0.000000106681*E19*E19+0.00532682*E19-0.08083</f>
         <v>17.140439240329</v>
       </c>
+      <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
       <c r="P19" s="2" t="s">
@@ -2482,6 +2587,7 @@
         <f aca="false">0.000000106681*E20*E20+0.00532682*E20-0.08083</f>
         <v>18.810271630625</v>
       </c>
+      <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
       <c r="P20" s="2" t="s">
@@ -2553,6 +2659,7 @@
         <f aca="false">0.000000106681*E21*E21+0.00532682*E21-0.08083</f>
         <v>20.1129964196</v>
       </c>
+      <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
       <c r="P21" s="2" t="s">
@@ -2624,6 +2731,7 @@
         <f aca="false">0.000000106681*E22*E22+0.00532682*E22-0.08083</f>
         <v>21.192874130609</v>
       </c>
+      <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
       <c r="P22" s="2" t="s">
@@ -2695,6 +2803,7 @@
         <f aca="false">0.000000106681*E23*E23+0.00532682*E23-0.08083</f>
         <v>22.532079307225</v>
       </c>
+      <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
       <c r="P23" s="2" t="s">
@@ -2766,6 +2875,7 @@
         <f aca="false">0.000000106681*E24*E24+0.00532682*E24-0.08083</f>
         <v>24.372910174144</v>
       </c>
+      <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
     </row>
@@ -2809,6 +2919,7 @@
         <f aca="false">0.000000106681*E25*E25+0.00532682*E25-0.08083</f>
         <v>25.8616377929</v>
       </c>
+      <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
     </row>
@@ -2852,6 +2963,7 @@
         <f aca="false">0.000000106681*E26*E26+0.00532682*E26-0.08083</f>
         <v>27.768093065104</v>
       </c>
+      <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
     </row>
@@ -2895,6 +3007,7 @@
         <f aca="false">0.000000106681*E27*E27+0.00532682*E27-0.08083</f>
         <v>29.905634800769</v>
       </c>
+      <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
     </row>
@@ -2944,6 +3057,139 @@
       </c>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
+++ b/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="128">
   <si>
     <t>Rodando o volante para o lado esquerdo (anti-horário)</t>
   </si>
@@ -293,6 +293,12 @@
     <t>trava</t>
   </si>
   <si>
+    <t>zero1</t>
+  </si>
+  <si>
+    <t>zero2</t>
+  </si>
+  <si>
     <t>3929</t>
   </si>
   <si>
@@ -369,17 +375,42 @@
   </si>
   <si>
     <t>4e95</t>
+  </si>
+  <si>
+    <t>zero1-limit</t>
+  </si>
+  <si>
+    <t>trava-limit</t>
+  </si>
+  <si>
+    <t>zero2-limit</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>zero1-zero2</t>
+  </si>
+  <si>
+    <t>trava-zero1</t>
+  </si>
+  <si>
+    <t>trava-zero2</t>
+  </si>
+  <si>
+    <t>Para calibrar basta ir até o limite no sentido horário e depois voltar no sentido antiorário até a “trava”. O zero está 2500 no sentido anti-horario a partir da trava.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -400,6 +431,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -449,7 +487,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,6 +502,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -573,7 +619,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -786,7 +832,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -983,7 +1029,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="6"/>
+            <c:size val="5"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1154,11 +1200,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="57990120"/>
-        <c:axId val="12854950"/>
+        <c:axId val="32599814"/>
+        <c:axId val="48845857"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57990120"/>
+        <c:axId val="32599814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,11 +1221,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="12854950"/>
+        <c:crossAx val="48845857"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12854950"/>
+        <c:axId val="48845857"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1252,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="57990120"/>
+        <c:crossAx val="32599814"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1246,15 +1292,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>324000</xdr:colOff>
+      <xdr:colOff>351360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>140400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1262,8 +1308,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9292680" y="1941840"/>
-        <a:ext cx="10388880" cy="6357240"/>
+        <a:off x="9495720" y="1932840"/>
+        <a:ext cx="10388520" cy="6321600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1279,19 +1325,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="2" style="1" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="1" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.0459183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="11.5561224489796"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5561224489796"/>
     <col collapsed="false" hidden="false" max="15" min="12" style="1" width="11.5561224489796"/>
     <col collapsed="false" hidden="false" max="21" min="16" style="0" width="11.5561224489796"/>
@@ -3058,6 +3106,24 @@
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
     </row>
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+    </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
         <v>89</v>
@@ -3071,22 +3137,53 @@
       <c r="E32" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <f aca="false">HEX2DEC(B33)</f>
+        <v>14633</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <f aca="false">HEX2DEC(C33)</f>
+        <v>20047</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <f aca="false">HEX2DEC(D33)</f>
+        <v>22562</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <f aca="false">HEX2DEC(E33)</f>
+        <v>20042</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,16 +3191,35 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <f aca="false">HEX2DEC(B34)</f>
+        <v>14645</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <f aca="false">HEX2DEC(C34)</f>
+        <v>20062</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <f aca="false">HEX2DEC(D34)</f>
+        <v>22562</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <f aca="false">HEX2DEC(E34)</f>
+        <v>20055</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3111,16 +3227,35 @@
         <v>3</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <f aca="false">HEX2DEC(B35)</f>
+        <v>14978</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <f aca="false">HEX2DEC(C35)</f>
+        <v>20395</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <f aca="false">HEX2DEC(D35)</f>
+        <v>22902</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <f aca="false">HEX2DEC(E35)</f>
+        <v>20387</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,16 +3263,35 @@
         <v>4</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <f aca="false">HEX2DEC(B36)</f>
+        <v>14628</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">HEX2DEC(C36)</f>
+        <v>20065</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <f aca="false">HEX2DEC(D36)</f>
+        <v>22562</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <f aca="false">HEX2DEC(E36)</f>
+        <v>20052</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,16 +3299,35 @@
         <v>5</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <f aca="false">HEX2DEC(B37)</f>
+        <v>14280</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">HEX2DEC(C37)</f>
+        <v>19723</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">HEX2DEC(D37)</f>
+        <v>22215</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">HEX2DEC(E37)</f>
+        <v>19715</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,16 +3335,35 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <f aca="false">HEX2DEC(B38)</f>
+        <v>14318</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <f aca="false">HEX2DEC(C38)</f>
+        <v>19750</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <f aca="false">HEX2DEC(D38)</f>
+        <v>22245</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <f aca="false">HEX2DEC(E38)</f>
+        <v>19745</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,16 +3371,297 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <f aca="false">HEX2DEC(B39)</f>
+        <v>14713</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <f aca="false">HEX2DEC(C39)</f>
+        <v>20132</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <f aca="false">HEX2DEC(D39)</f>
+        <v>22632</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <f aca="false">HEX2DEC(E39)</f>
+        <v>20117</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="1" t="n">
+        <f aca="false">H33-G33</f>
+        <v>5414</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <f aca="false">I33-G33</f>
+        <v>7929</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <f aca="false">J33-G33</f>
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="1" t="n">
+        <f aca="false">H34-G34</f>
+        <v>5417</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <f aca="false">I34-G34</f>
+        <v>7917</v>
+      </c>
+      <c r="J44" s="1" t="n">
+        <f aca="false">J34-G34</f>
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="1" t="n">
+        <f aca="false">H35-G35</f>
+        <v>5417</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <f aca="false">I35-G35</f>
+        <v>7924</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <f aca="false">J35-G35</f>
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="1" t="n">
+        <f aca="false">H36-G36</f>
+        <v>5437</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <f aca="false">I36-G36</f>
+        <v>7934</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <f aca="false">J36-G36</f>
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="1" t="n">
+        <f aca="false">H37-G37</f>
+        <v>5443</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <f aca="false">I37-G37</f>
+        <v>7935</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <f aca="false">J37-G37</f>
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="1" t="n">
+        <f aca="false">H38-G38</f>
+        <v>5432</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <f aca="false">I38-G38</f>
+        <v>7927</v>
+      </c>
+      <c r="J48" s="1" t="n">
+        <f aca="false">J38-G38</f>
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="1" t="n">
+        <f aca="false">H39-G39</f>
+        <v>5419</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <f aca="false">I39-G39</f>
+        <v>7919</v>
+      </c>
+      <c r="J49" s="1" t="n">
+        <f aca="false">J39-G39</f>
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <f aca="false">AVERAGE(H43:H49)</f>
+        <v>5425.57142857143</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <f aca="false">AVERAGE(I43:I49)</f>
+        <v>7926.42857142857</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <f aca="false">AVERAGE(J43:J49)</f>
+        <v>5416.85714285714</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="1" t="n">
+        <f aca="false">H33-J33</f>
+        <v>5</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <f aca="false">I33-H33</f>
+        <v>2515</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">I33-J33</f>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H54" s="1" t="n">
+        <f aca="false">H34-J34</f>
+        <v>7</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <f aca="false">I34-H34</f>
+        <v>2500</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">I34-J34</f>
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H55" s="1" t="n">
+        <f aca="false">H35-J35</f>
+        <v>8</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <f aca="false">I35-H35</f>
+        <v>2507</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">I35-J35</f>
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="1" t="n">
+        <f aca="false">H36-J36</f>
+        <v>13</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <f aca="false">I36-H36</f>
+        <v>2497</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">I36-J36</f>
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="1" t="n">
+        <f aca="false">H37-J37</f>
+        <v>8</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <f aca="false">I37-H37</f>
+        <v>2492</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">I37-J37</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H58" s="1" t="n">
+        <f aca="false">H38-J38</f>
+        <v>5</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <f aca="false">I38-H38</f>
+        <v>2495</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">I38-J38</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H59" s="1" t="n">
+        <f aca="false">H39-J39</f>
+        <v>15</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <f aca="false">I39-H39</f>
+        <v>2500</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">I39-J39</f>
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <f aca="false">AVERAGE(H53:H59)</f>
+        <v>8.71428571428571</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <f aca="false">AVERAGE(I53:I59)</f>
+        <v>2500.85714285714</v>
+      </c>
+      <c r="J60" s="5" t="n">
+        <f aca="false">AVERAGE(J53:J59)</f>
+        <v>2509.57142857143</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
+++ b/sharedlib/OpenJAUS/medicoes na boca rodas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="140" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="76" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -619,7 +619,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="5"/>
+            <c:size val="4"/>
           </c:marker>
           <c:trendline>
             <c:spPr>
@@ -832,7 +832,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="5"/>
+            <c:size val="4"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1029,7 +1029,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="5"/>
+            <c:size val="4"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1200,11 +1200,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="32599814"/>
-        <c:axId val="48845857"/>
+        <c:axId val="68439133"/>
+        <c:axId val="69799739"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32599814"/>
+        <c:axId val="68439133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,11 +1221,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="48845857"/>
+        <c:crossAx val="69799739"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48845857"/>
+        <c:axId val="69799739"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="32599814"/>
+        <c:crossAx val="68439133"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1292,15 +1292,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>351360</xdr:colOff>
+      <xdr:colOff>378360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>140400</xdr:colOff>
+      <xdr:colOff>167040</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1308,8 +1308,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9495720" y="1932840"/>
-        <a:ext cx="10388520" cy="6321600"/>
+        <a:off x="9522720" y="1923840"/>
+        <a:ext cx="10388160" cy="6321240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1328,9 +1328,9 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W62"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -3111,18 +3111,33 @@
       <c r="C29" s="0"/>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
       <c r="D30" s="0"/>
       <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
       <c r="D31" s="0"/>
       <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="2" t="s">
@@ -3137,6 +3152,7 @@
       <c r="E32" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="F32" s="0"/>
       <c r="G32" s="2" t="s">
         <v>89</v>
       </c>
@@ -3402,8 +3418,20 @@
         <v>20117</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+    </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="0"/>
       <c r="H42" s="2" t="s">
         <v>120</v>
       </c>
@@ -3415,6 +3443,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="0"/>
       <c r="H43" s="1" t="n">
         <f aca="false">H33-G33</f>
         <v>5414</v>
@@ -3429,6 +3458,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="0"/>
       <c r="H44" s="1" t="n">
         <f aca="false">H34-G34</f>
         <v>5417</v>
@@ -3443,6 +3473,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="0"/>
       <c r="H45" s="1" t="n">
         <f aca="false">H35-G35</f>
         <v>5417</v>
@@ -3457,6 +3488,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="0"/>
       <c r="H46" s="1" t="n">
         <f aca="false">H36-G36</f>
         <v>5437</v>
@@ -3471,6 +3503,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="0"/>
       <c r="H47" s="1" t="n">
         <f aca="false">H37-G37</f>
         <v>5443</v>
@@ -3485,6 +3518,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="0"/>
       <c r="H48" s="1" t="n">
         <f aca="false">H38-G38</f>
         <v>5432</v>
@@ -3499,6 +3533,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="0"/>
       <c r="H49" s="1" t="n">
         <f aca="false">H39-G39</f>
         <v>5419</v>
@@ -3530,10 +3565,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="0"/>
       <c r="H52" s="1" t="s">
         <v>124</v>
       </c>
@@ -3545,6 +3583,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="0"/>
       <c r="H53" s="1" t="n">
         <f aca="false">H33-J33</f>
         <v>5</v>
@@ -3559,6 +3598,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="0"/>
       <c r="H54" s="1" t="n">
         <f aca="false">H34-J34</f>
         <v>7</v>
@@ -3573,6 +3613,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="0"/>
       <c r="H55" s="1" t="n">
         <f aca="false">H35-J35</f>
         <v>8</v>
@@ -3587,6 +3628,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="0"/>
       <c r="H56" s="1" t="n">
         <f aca="false">H36-J36</f>
         <v>13</v>
@@ -3601,6 +3643,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="0"/>
       <c r="H57" s="1" t="n">
         <f aca="false">H37-J37</f>
         <v>8</v>
@@ -3615,6 +3658,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="0"/>
       <c r="H58" s="1" t="n">
         <f aca="false">H38-J38</f>
         <v>5</v>
@@ -3629,6 +3673,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="0"/>
       <c r="H59" s="1" t="n">
         <f aca="false">H39-J39</f>
         <v>15</v>
@@ -3662,6 +3707,11 @@
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
